--- a/serverInfo.xlsx
+++ b/serverInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HONGKYO\STUDY\ToyProject\PetFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155269FE-C0B4-47B8-8E4F-D3525B4610E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0FC11B-D638-4D4C-9544-7E6750F48563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{94B9B22A-32C0-49DF-A1A7-A75E9EB0A7DD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>서버</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,7 +100,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http</t>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armv7l 32bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,11 +112,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arm71 32bit</t>
+    <t>yona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -366,19 +370,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -445,13 +436,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,43 +539,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,36 +907,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91B6E20-1CDB-4C5D-BCCD-C7E5E80BE956}">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>19</v>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>3</v>
@@ -887,20 +948,16 @@
       <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="18"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -909,68 +966,99 @@
       <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2022</v>
-      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="20"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="18"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="6">
-        <v>8080</v>
-      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="20"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="21"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="27">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="29">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="31">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="C4:C8"/>
